--- a/data/eBooks-main/current/containerized-lifecycle/Containerized-Docker-Application-Lifecycle-with-Microsoft-Platform-and-Tools.pdf.hwaifs/tables/py/gmft/df.tables-1.xlsx
+++ b/data/eBooks-main/current/containerized-lifecycle/Containerized-Docker-Application-Lifecycle-with-Microsoft-Platform-and-Tools.pdf.hwaifs/tables/py/gmft/df.tables-1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,12 +694,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Using Windows PowerShell commands in a DockerFile to set up Windows Containers</t>
+          <t>Using Windows PowerShell commands in a DockerFile to set up Windows Containers standard based).....................................................................................................................................................................</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(Docker</t>
+          <t>(Docker 56</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>standard based).....................................................................................................................................................................</t>
+          <t>Build ASP.NET Core applications deployed as Linux containers into an AKS/Kubernetes ......................................................................................................................................................................................................</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>orchestrator 57</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Build ASP.NET Core applications deployed as Linux containers into an AKS/Kubernetes</t>
+          <t>Creating the ASP.NET Core Project using Visual Studio 2022........................................................................</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>orchestrator</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>......................................................................................................................................................................................................</t>
+          <t>Register the Solution in an Azure Container Registry (ACR) ..........................................................................</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Creating the ASP.NET Core Project using Visual Studio 2022........................................................................</t>
+          <t>Docker application DevOps workflow with Microsoft tools.............................................</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Register the Solution in an Azure Container Registry (ACR) ..........................................................................</t>
+          <t>Steps in the outer-loop DevOps workflow for a Docker application...............................................................</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Docker application DevOps workflow with Microsoft tools.............................................</t>
+          <t>Step 1: Inner-loop development workflow............................................................................................................</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Steps in the outer-loop DevOps workflow for a Docker application...............................................................</t>
+          <t>Step 2: Source-Code Control integration and management with Azure DevOps</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>Services and Git 76</t>
         </is>
       </c>
     </row>
@@ -814,12 +814,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Step 1: Inner-loop development workflow............................................................................................................</t>
+          <t>Step 3: Build, CI, Integrate, and Test with Azure DevOps Services/GitHub and</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>Docker...................... 76</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Step 2: Source-Code Control integration and management with Azure DevOps</t>
+          <t>Step 4: CD, Deploy...........................................................................................................................................................</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Services and Git 76</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Step 3: Build, CI, Integrate, and Test with Azure DevOps Services/GitHub and</t>
+          <t>Step 5: Run and manage...............................................................................................................................................</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Docker...................... 76</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -859,40 +859,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Step 4: CD, Deploy...........................................................................................................................................................</t>
+          <t>Step 6: Monitor and diagnose</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Step 5: Run and manage...............................................................................................................................................</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Step 6: Monitor and diagnose</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>89</t>
         </is>
